--- a/заказы/статистика филиалы/2023/09,23/29,09,23 ЗПФ/дв 29,09,23 мррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/09,23/29,09,23 ЗПФ/дв 29,09,23 мррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\29,09,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\09,23\29,09,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E24A05-3FFB-4757-8B68-5652D097C68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11DFAFC-02DE-4059-8A86-875A43224505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,10 +223,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -393,7 +397,7 @@
       <sheetName val="TDSheet"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Период: 15.09.2023 - 22.09.2023</v>
@@ -2427,7 +2431,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2882,7 +2886,7 @@
         <v>3.7</v>
       </c>
       <c r="V9" s="16">
-        <f t="shared" ref="V7:V38" si="8">M9/U9</f>
+        <f t="shared" ref="V9:V38" si="8">M9/U9</f>
         <v>0</v>
       </c>
       <c r="W9" s="2">
